--- a/ER图+数据字典/数据字典.xlsx
+++ b/ER图+数据字典/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B39865-92CC-4589-8153-4DC7CF4C54A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796BDF9-999B-49FB-A495-B4262DBA520E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="系统日志" sheetId="12" r:id="rId14"/>
     <sheet name="数据恢复" sheetId="14" r:id="rId15"/>
     <sheet name="邮件" sheetId="16" r:id="rId16"/>
+    <sheet name="系统消息" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="340">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,17 +123,6 @@
   </si>
   <si>
     <t>男性为true，女性为false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名
-密码
-注册时间
-邮箱
-手机号码
-性别
-状态
-用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1391,6 +1381,112 @@
   </si>
   <si>
     <t>案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被踩的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名
+密码
+注册时间
+邮箱
+手机号码
+性别
+状态
+用户类型
++0：n帖子收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs主题帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录帖子的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户个人签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人
+标题
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收系统消息的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、2、1、0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为草稿，1为发布的帖子，2为加精帖，3为置顶帖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1489,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1771,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1802,13 +1901,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -1827,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1844,24 +1943,24 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="4">
         <v>20</v>
@@ -1869,19 +1968,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1892,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1906,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -1920,13 +2019,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1948,10 +2047,10 @@
     </row>
     <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -1960,87 +2059,112 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="4">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2082,46 +2206,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -2130,42 +2254,42 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
         <v>用户</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -2208,43 +2332,43 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
         <v>305</v>
-      </c>
-      <c r="C3" t="s">
-        <v>306</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
         <v>308</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>309</v>
-      </c>
-      <c r="C4" t="s">
-        <v>310</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -2252,24 +2376,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
         <v>311</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>312</v>
-      </c>
-      <c r="C5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
         <v>314</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2281,18 +2405,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1990B622-3163-49B6-BFEA-33E297CC4383}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2310,46 +2435,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -2358,24 +2483,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -2384,13 +2509,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
@@ -2398,13 +2523,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -2412,31 +2537,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户类型")</f>
         <v>用户类型</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2447,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27751F4-0EBE-4A78-A24B-59A64881382F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2475,46 +2648,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -2523,24 +2696,24 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#bbs主题帖!a1:e14","bbs主题帖")</f>
@@ -2549,13 +2722,13 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -2563,16 +2736,44 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2614,80 +2815,80 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2730,77 +2931,77 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +3015,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2842,26 +3043,26 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2869,10 +3070,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2880,13 +3081,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -2894,13 +3095,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>1000</v>
@@ -2908,21 +3109,112 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F13F9-10A7-4B60-9584-C6F3F2609C1F}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2931,7 +3223,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2956,26 +3248,26 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2983,87 +3275,87 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3370,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3105,49 +3397,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
@@ -3155,13 +3447,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -3169,10 +3461,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e10","用户")</f>
@@ -3181,24 +3473,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3207,38 +3499,38 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -3246,13 +3538,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -3260,13 +3552,13 @@
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
         <v>10</v>
@@ -3274,13 +3566,13 @@
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12">
         <v>4</v>
@@ -3288,13 +3580,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -3302,10 +3594,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
@@ -3314,10 +3606,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
@@ -3326,13 +3618,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
@@ -3377,46 +3669,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -3425,10 +3717,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3437,10 +3729,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
@@ -3449,10 +3741,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>HYPERLINK("#角色分配!a1:e14","角色分配")</f>
@@ -3497,29 +3789,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -3528,10 +3820,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3540,10 +3832,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
@@ -3552,19 +3844,19 @@
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3605,43 +3897,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -3650,10 +3942,10 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -3662,13 +3954,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -3676,13 +3968,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>400</v>
@@ -3690,10 +3982,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
@@ -3702,10 +3994,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3714,10 +4006,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -3726,18 +4018,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -3745,38 +4037,38 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>HYPERLINK("#文档!a1:e14","文档")</f>
@@ -3785,10 +4077,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>HYPERLINK("#文档!a1:e14","文档")</f>
@@ -3797,52 +4089,52 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>HYPERLINK("#评价!a1:e14","评价")</f>
@@ -3851,10 +4143,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>HYPERLINK("#评价!a1:e14","评价")</f>
@@ -3870,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936B6BC0-5566-4071-BEE7-BFA9D95F50C6}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3900,29 +4192,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -3930,10 +4222,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
@@ -3942,10 +4234,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3954,44 +4246,58 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
         <v>用户</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>330</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -4029,89 +4335,89 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4149,46 +4455,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -4197,13 +4503,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -4211,13 +4517,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>400</v>

--- a/ER图+数据字典/数据字典.xlsx
+++ b/ER图+数据字典/数据字典.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796BDF9-999B-49FB-A495-B4262DBA520E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2FD11-80AF-4CE5-886E-D42BC8FE7EF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="351">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1487,6 +1487,50 @@
   </si>
   <si>
     <t>0为草稿，1为发布的帖子，2为加精帖，3为置顶帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示项目自动开始，1表示项目手动开始，2表示项目延时开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目延迟的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的开始条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示项目被冻结，1表示项目未开始，2表示项目正在进行，3表示项目已经结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，1，2，3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1990B622-3163-49B6-BFEA-33E297CC4383}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3639,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F8E00-FB34-46C5-94E5-15A2D9D26A5C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3650,8 +3694,8 @@
     <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="16.875" style="3"/>
   </cols>
   <sheetData>
@@ -3749,6 +3793,60 @@
       <c r="C7" s="6" t="str">
         <f>HYPERLINK("#角色分配!a1:e14","角色分配")</f>
         <v>角色分配</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +3968,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ER图+数据字典/数据字典.xlsx
+++ b/ER图+数据字典/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2FD11-80AF-4CE5-886E-D42BC8FE7EF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51235F77-3858-4E85-B0AD-EB40E3655A5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,21 @@
     <sheet name="项目" sheetId="4" r:id="rId4"/>
     <sheet name="角色分配" sheetId="7" r:id="rId5"/>
     <sheet name="任务" sheetId="3" r:id="rId6"/>
-    <sheet name="评价" sheetId="15" r:id="rId7"/>
-    <sheet name="文档" sheetId="8" r:id="rId8"/>
-    <sheet name="案例角色" sheetId="5" r:id="rId9"/>
-    <sheet name="聊天表" sheetId="9" r:id="rId10"/>
-    <sheet name="论坛版块" sheetId="18" r:id="rId11"/>
-    <sheet name="bbs主题帖" sheetId="10" r:id="rId12"/>
-    <sheet name="bbs回复贴" sheetId="11" r:id="rId13"/>
-    <sheet name="系统日志" sheetId="12" r:id="rId14"/>
-    <sheet name="数据恢复" sheetId="14" r:id="rId15"/>
-    <sheet name="邮件" sheetId="16" r:id="rId16"/>
-    <sheet name="系统消息" sheetId="19" r:id="rId17"/>
+    <sheet name="任务评价" sheetId="15" r:id="rId7"/>
+    <sheet name="项目评价" sheetId="22" r:id="rId8"/>
+    <sheet name="项目成员互评" sheetId="23" r:id="rId9"/>
+    <sheet name="打分表" sheetId="20" r:id="rId10"/>
+    <sheet name="打分选项" sheetId="24" r:id="rId11"/>
+    <sheet name="文档" sheetId="8" r:id="rId12"/>
+    <sheet name="案例角色" sheetId="5" r:id="rId13"/>
+    <sheet name="聊天表" sheetId="9" r:id="rId14"/>
+    <sheet name="论坛版块" sheetId="18" r:id="rId15"/>
+    <sheet name="bbs主题帖" sheetId="10" r:id="rId16"/>
+    <sheet name="bbs回复贴" sheetId="11" r:id="rId17"/>
+    <sheet name="系统日志" sheetId="12" r:id="rId18"/>
+    <sheet name="数据恢复" sheetId="14" r:id="rId19"/>
+    <sheet name="邮件" sheetId="16" r:id="rId20"/>
+    <sheet name="系统消息" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="370">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,15 +1049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评价编号
-被评任务
-评价者
-被评者
-评价等级
-评价内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被评者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,10 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评价等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该任务的评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,10 +1074,6 @@
   </si>
   <si>
     <t>0、1、2或3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、B、C、D或E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1531,6 +1518,109 @@
   </si>
   <si>
     <t>0，1，2，3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据完成情况进行打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：n打分选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或者任务的打分选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被评项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被评价的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价编号
+评价者
+被评者
+评价打分
+评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价编号
+被评项目
+评价者
+评价打分
+评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价编号
+被评任务
+评价者
+被评者
+评价打分
+评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分表中的打分选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价点
+得分
+权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分参考的评价点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D或E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于100的正整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分选项的权重总和不得大于100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -2024,7 +2114,7 @@
         <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2108,42 +2198,42 @@
     </row>
     <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -2160,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>192</v>
@@ -2180,32 +2270,32 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D17" s="4">
         <v>400</v>
@@ -2219,6 +2309,399 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416001E7-DF1F-409B-97DD-1951200D2ACC}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D43D47-F3F6-4495-9180-C35DFE5278F6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B441838-B5BF-47DE-9174-CF5052A39EC8}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC11E7-6CC2-48F5-B36A-7F3D7D853403}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>HYPERLINK("#案例!a1:e14","案例")</f>
+        <v>案例</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F61516-58ED-46A9-99C8-52ABAE75B1FF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2258,7 +2741,7 @@
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>138</v>
@@ -2345,12 +2828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C85A38-3736-4A31-B75C-26192E1F3AF9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2381,38 +2864,38 @@
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
         <v>301</v>
       </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -2420,24 +2903,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1990B622-3163-49B6-BFEA-33E297CC4383}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2493,7 +2976,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2610,13 +3093,13 @@
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D11" s="14">
         <v>10</v>
@@ -2624,13 +3107,13 @@
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
@@ -2638,22 +3121,22 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2662,12 +3145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27751F4-0EBE-4A78-A24B-59A64881382F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2794,13 +3277,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D9" s="14">
         <v>10</v>
@@ -2808,13 +3291,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -2826,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054AF5EF-138C-48C4-AA1A-32D252526B04}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2929,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>211</v>
@@ -2941,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF357DE7-7B1D-4A24-9B8B-66E0651FC7A1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2986,7 +3469,7 @@
         <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3042,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>222</v>
@@ -3051,214 +3534,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBBBAF-F9BE-42DE-AA11-7A606B95E7E5}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F13F9-10A7-4B60-9584-C6F3F2609C1F}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3300,15 +3575,15 @@
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -3319,7 +3594,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -3328,15 +3603,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -3345,15 +3620,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3362,15 +3637,15 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" t="s">
         <v>287</v>
-      </c>
-      <c r="F6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -3379,15 +3654,15 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -3396,10 +3671,218 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBBBAF-F9BE-42DE-AA11-7A606B95E7E5}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F13F9-10A7-4B60-9584-C6F3F2609C1F}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>180</v>
@@ -3662,13 +4145,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
@@ -3685,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F8E00-FB34-46C5-94E5-15A2D9D26A5C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3797,33 +4280,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
@@ -3831,22 +4314,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4492,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4221,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>189</v>
@@ -4263,14 +4746,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -4301,7 +4785,7 @@
         <v>235</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4344,10 +4828,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4356,41 +4840,35 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>46</v>
@@ -4402,21 +4880,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B441838-B5BF-47DE-9174-CF5052A39EC8}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4563D6FD-9B63-4DDC-9B09-354E1A2CF6B9}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -4433,89 +4913,97 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>HYPERLINK("#用户!a1:e14","用户")</f>
+        <v>用户</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
+      <c r="D6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4525,21 +5013,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC11E7-6CC2-48F5-B36A-7F3D7D853403}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64308051-E74D-4E91-8BA7-84E72DA6C9B2}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="27.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4553,78 +5043,98 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>HYPERLINK("#案例!a1:e14","案例")</f>
-        <v>案例</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>HYPERLINK("#用户!a1:e14","用户")</f>
+        <v>用户</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>HYPERLINK("#用户!a1:e14","用户")</f>
+        <v>用户</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6">
-        <v>400</v>
+      <c r="D8" s="4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/ER图+数据字典/数据字典.xlsx
+++ b/ER图+数据字典/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51235F77-3858-4E85-B0AD-EB40E3655A5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF8A50-A00B-499A-8AEC-838080E76CE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="376">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,14 +207,6 @@
   </si>
   <si>
     <t>案例状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于标记该案例是否被冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例被封禁则为false，案例正常使用则为true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,12 +785,6 @@
   </si>
   <si>
     <t>用于标记该案例的可见范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0为仅案例管理员和系统管理员可见，1为进案
-例创建者，系统管理员和案例管理员可见，2
-为公开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1621,6 +1607,42 @@
   </si>
   <si>
     <t>打分选项的权重总和不得大于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于标记该案例的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为案例除处于删除状态，1为案例处于正常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为案例非公开状态，1为案例为公开状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例被删除的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例被案例管理员删除时的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2006,7 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2035,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
@@ -2049,7 +2071,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -2060,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2077,24 +2099,24 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D5" s="4">
         <v>20</v>
@@ -2102,19 +2124,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2125,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -2139,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -2153,13 +2175,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2198,62 +2220,62 @@
     </row>
     <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -2264,38 +2286,38 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D17" s="4">
         <v>400</v>
@@ -2312,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416001E7-DF1F-409B-97DD-1951200D2ACC}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2345,7 @@
     <col min="6" max="6" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2340,32 +2362,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2405,29 +2427,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -2435,36 +2457,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2501,89 +2523,89 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2621,46 +2643,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -2669,13 +2691,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -2683,13 +2705,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -2733,46 +2755,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -2781,42 +2803,42 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
         <v>用户</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -2833,7 +2855,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,43 +2881,43 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -2903,24 +2925,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2962,46 +2984,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3010,24 +3032,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -3036,13 +3058,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
@@ -3050,13 +3072,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -3064,42 +3086,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户类型")</f>
         <v>用户类型</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D11" s="14">
         <v>10</v>
@@ -3107,13 +3129,13 @@
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
@@ -3121,22 +3143,22 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3175,46 +3197,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -3223,24 +3245,24 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#bbs主题帖!a1:e14","bbs主题帖")</f>
@@ -3249,13 +3271,13 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -3263,27 +3285,27 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D9" s="14">
         <v>10</v>
@@ -3291,13 +3313,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -3342,35 +3364,35 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3378,44 +3400,44 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3458,77 +3480,77 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3567,26 +3589,26 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -3594,87 +3616,87 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" t="s">
         <v>284</v>
-      </c>
-      <c r="F6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3717,26 +3739,26 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -3744,10 +3766,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3755,13 +3777,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -3769,13 +3791,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>1000</v>
@@ -3783,16 +3805,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3832,26 +3854,26 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3859,13 +3881,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3873,13 +3895,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -3894,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799BCF04-FDCA-4840-978C-F8D48E03182A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3924,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
@@ -3938,7 +3960,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -3966,7 +3988,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
@@ -3980,7 +4002,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -4006,7 +4028,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>40</v>
@@ -4014,146 +4036,163 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>180</v>
+        <v>368</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12">
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="6" t="str">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="6" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
         <v>案例角色</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="6" t="str">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
         <v>任务</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="3">
         <v>20</v>
       </c>
     </row>
@@ -4196,46 +4235,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -4244,10 +4283,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4256,10 +4295,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
@@ -4268,10 +4307,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>HYPERLINK("#角色分配!a1:e14","角色分配")</f>
@@ -4280,33 +4319,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
@@ -4314,22 +4353,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4370,29 +4409,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -4401,10 +4440,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4413,10 +4452,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
@@ -4425,19 +4464,19 @@
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4490,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4478,43 +4517,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>HYPERLINK("#案例!a1:e14","案例")</f>
@@ -4523,10 +4562,10 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>HYPERLINK("#项目!a1:e14","项目")</f>
@@ -4535,13 +4574,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -4549,13 +4588,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>400</v>
@@ -4563,10 +4602,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>HYPERLINK("#案例角色!a1:e14","案例角色")</f>
@@ -4575,10 +4614,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4587,10 +4626,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -4599,18 +4638,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -4618,38 +4657,38 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>HYPERLINK("#文档!a1:e14","文档")</f>
@@ -4658,10 +4697,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>HYPERLINK("#文档!a1:e14","文档")</f>
@@ -4670,52 +4709,52 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>HYPERLINK("#评价!a1:e14","评价")</f>
@@ -4724,10 +4763,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>HYPERLINK("#评价!a1:e14","评价")</f>
@@ -4757,7 +4796,7 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4774,29 +4813,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -4804,10 +4843,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>HYPERLINK("#任务!a1:e14","任务")</f>
@@ -4816,10 +4855,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4828,10 +4867,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4840,13 +4879,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
@@ -4854,24 +4893,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>1000</v>
@@ -4899,7 +4938,7 @@
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4916,29 +4955,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -4946,21 +4985,21 @@
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -4969,13 +5008,13 @@
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -4983,24 +5022,24 @@
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -5029,7 +5068,7 @@
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5046,29 +5085,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -5076,10 +5115,10 @@
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -5088,10 +5127,10 @@
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>HYPERLINK("#用户!a1:e14","用户")</f>
@@ -5100,13 +5139,13 @@
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -5114,24 +5153,24 @@
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
